--- a/result/extreme_weather/basic_statistics/city_0/basic_statistics.xlsx
+++ b/result/extreme_weather/basic_statistics/city_0/basic_statistics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,392 +483,426 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>TEMP</t>
+          <t>RH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162.22</v>
+        <v>3.26</v>
       </c>
       <c r="C2" t="n">
-        <v>21.78</v>
+        <v>0.79</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.22</v>
+        <v>0.17</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.99</v>
+        <v>-0.28</v>
       </c>
       <c r="F2" t="n">
-        <v>111.02</v>
+        <v>1.28</v>
       </c>
       <c r="G2" t="n">
-        <v>122.66</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
-        <v>165.02</v>
+        <v>3.22</v>
       </c>
       <c r="I2" t="n">
-        <v>197.42</v>
+        <v>4.96</v>
       </c>
       <c r="J2" t="n">
-        <v>202.46</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>DEWP</t>
+          <t>TEMP</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>144.19</v>
+        <v>162.22</v>
       </c>
       <c r="C3" t="n">
-        <v>21.31</v>
+        <v>21.78</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.22</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.64</v>
+        <v>-0.99</v>
       </c>
       <c r="F3" t="n">
-        <v>81.5</v>
+        <v>111.02</v>
       </c>
       <c r="G3" t="n">
-        <v>99.19</v>
+        <v>122.66</v>
       </c>
       <c r="H3" t="n">
-        <v>148.82</v>
+        <v>165.02</v>
       </c>
       <c r="I3" t="n">
-        <v>170.96</v>
+        <v>197.42</v>
       </c>
       <c r="J3" t="n">
-        <v>174.92</v>
+        <v>202.46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>DEWP</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.24</v>
+        <v>62.33</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8100000000000001</v>
+        <v>11.84</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.85</v>
+        <v>-0.64</v>
       </c>
       <c r="F4" t="n">
-        <v>99.69</v>
+        <v>27.5</v>
       </c>
       <c r="G4" t="n">
-        <v>99.95999999999999</v>
+        <v>37.33</v>
       </c>
       <c r="H4" t="n">
-        <v>101.26</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>102.8</v>
+        <v>77.2</v>
       </c>
       <c r="J4" t="n">
-        <v>103.34</v>
+        <v>79.40000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>STP</t>
+          <t>SLP</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83.03</v>
+        <v>101.24</v>
       </c>
       <c r="C5" t="n">
-        <v>36.21</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.84</v>
+        <v>0.23</v>
       </c>
       <c r="E5" t="n">
-        <v>1.41</v>
+        <v>-0.85</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>99.69</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1</v>
+        <v>99.95999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>98.73</v>
+        <v>101.26</v>
       </c>
       <c r="I5" t="n">
-        <v>99.90000000000001</v>
+        <v>102.8</v>
       </c>
       <c r="J5" t="n">
-        <v>99.98</v>
+        <v>103.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>VISIB</t>
+          <t>STP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.68</v>
+        <v>83.03</v>
       </c>
       <c r="C6" t="n">
-        <v>7.93</v>
+        <v>36.21</v>
       </c>
       <c r="D6" t="n">
-        <v>0.11</v>
+        <v>-1.84</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.27</v>
+        <v>1.41</v>
       </c>
       <c r="F6" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.54</v>
+        <v>0.1</v>
       </c>
       <c r="H6" t="n">
-        <v>15.29</v>
+        <v>98.73</v>
       </c>
       <c r="I6" t="n">
-        <v>29.44</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>29.93</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>WDSP</t>
+          <t>VISIB</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.65</v>
+        <v>15.68</v>
       </c>
       <c r="C7" t="n">
-        <v>0.58</v>
+        <v>7.93</v>
       </c>
       <c r="D7" t="n">
-        <v>0.85</v>
+        <v>0.11</v>
       </c>
       <c r="E7" t="n">
-        <v>0.78</v>
+        <v>-1.27</v>
       </c>
       <c r="F7" t="n">
-        <v>0.51</v>
+        <v>1.29</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8100000000000001</v>
+        <v>3.54</v>
       </c>
       <c r="H7" t="n">
-        <v>1.59</v>
+        <v>15.29</v>
       </c>
       <c r="I7" t="n">
-        <v>2.98</v>
+        <v>29.44</v>
       </c>
       <c r="J7" t="n">
-        <v>4.01</v>
+        <v>29.93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MXSPD</t>
+          <t>WDSP</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.65</v>
+        <v>1.65</v>
       </c>
       <c r="C8" t="n">
-        <v>0.99</v>
+        <v>0.58</v>
       </c>
       <c r="D8" t="n">
-        <v>0.58</v>
+        <v>0.85</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2</v>
+        <v>0.78</v>
       </c>
       <c r="F8" t="n">
-        <v>0.98</v>
+        <v>0.51</v>
       </c>
       <c r="G8" t="n">
-        <v>0.98</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2.68</v>
+        <v>1.59</v>
       </c>
       <c r="I8" t="n">
-        <v>4.99</v>
+        <v>2.98</v>
       </c>
       <c r="J8" t="n">
-        <v>6.02</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>GUST</t>
+          <t>MXSPD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.28</v>
+        <v>2.65</v>
       </c>
       <c r="C9" t="n">
-        <v>1.89</v>
+        <v>0.99</v>
       </c>
       <c r="D9" t="n">
-        <v>1.11</v>
+        <v>0.58</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F9" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I9" t="n">
         <v>4.99</v>
       </c>
-      <c r="G9" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="I9" t="n">
-        <v>11.76</v>
-      </c>
       <c r="J9" t="n">
-        <v>12.4</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MAX</t>
+          <t>GUST</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>180.52</v>
+        <v>7.28</v>
       </c>
       <c r="C10" t="n">
-        <v>24.42</v>
+        <v>1.89</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.45</v>
+        <v>1.11</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.79</v>
+        <v>-0.05</v>
       </c>
       <c r="F10" t="n">
-        <v>119.12</v>
+        <v>4.99</v>
       </c>
       <c r="G10" t="n">
-        <v>131.17</v>
+        <v>5.24</v>
       </c>
       <c r="H10" t="n">
-        <v>185.18</v>
+        <v>6.04</v>
       </c>
       <c r="I10" t="n">
-        <v>217.01</v>
+        <v>11.76</v>
       </c>
       <c r="J10" t="n">
-        <v>226.04</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAX</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>148.38</v>
+        <v>180.52</v>
       </c>
       <c r="C11" t="n">
-        <v>20.64</v>
+        <v>24.42</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.22</v>
+        <v>-0.45</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.17</v>
+        <v>-0.79</v>
       </c>
       <c r="F11" t="n">
-        <v>100.04</v>
+        <v>119.12</v>
       </c>
       <c r="G11" t="n">
-        <v>110.89</v>
+        <v>131.17</v>
       </c>
       <c r="H11" t="n">
-        <v>150.26</v>
+        <v>185.18</v>
       </c>
       <c r="I11" t="n">
-        <v>177.08</v>
+        <v>217.01</v>
       </c>
       <c r="J11" t="n">
-        <v>187.52</v>
+        <v>226.04</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>PRCP</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>148.38</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01</v>
+        <v>20.64</v>
       </c>
       <c r="D12" t="n">
-        <v>7.47</v>
+        <v>-0.22</v>
       </c>
       <c r="E12" t="n">
-        <v>73.56</v>
+        <v>-1.17</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>100.04</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>110.89</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>150.26</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02</v>
+        <v>177.08</v>
       </c>
       <c r="J12" t="n">
-        <v>0.09</v>
+        <v>187.52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
+          <t>PRCP</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="E13" t="n">
+        <v>73.56</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>SNDP</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result/extreme_weather/basic_statistics/city_0/basic_statistics.xlsx
+++ b/result/extreme_weather/basic_statistics/city_0/basic_statistics.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.26</v>
+        <v>843.08</v>
       </c>
       <c r="C2" t="n">
-        <v>0.79</v>
+        <v>197.43</v>
       </c>
       <c r="D2" t="n">
-        <v>0.17</v>
+        <v>-0.21</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.28</v>
+        <v>-0.05</v>
       </c>
       <c r="F2" t="n">
-        <v>1.28</v>
+        <v>260.09</v>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>416.77</v>
       </c>
       <c r="H2" t="n">
-        <v>3.22</v>
+        <v>848.62</v>
       </c>
       <c r="I2" t="n">
-        <v>4.96</v>
+        <v>1211.15</v>
       </c>
       <c r="J2" t="n">
-        <v>5.25</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="3">
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.22</v>
+        <v>22.41</v>
       </c>
       <c r="C3" t="n">
-        <v>21.78</v>
+        <v>6.72</v>
       </c>
       <c r="D3" t="n">
         <v>-0.22</v>
@@ -533,19 +533,19 @@
         <v>-0.99</v>
       </c>
       <c r="F3" t="n">
-        <v>111.02</v>
+        <v>6.61</v>
       </c>
       <c r="G3" t="n">
-        <v>122.66</v>
+        <v>10.2</v>
       </c>
       <c r="H3" t="n">
-        <v>165.02</v>
+        <v>23.28</v>
       </c>
       <c r="I3" t="n">
-        <v>197.42</v>
+        <v>33.28</v>
       </c>
       <c r="J3" t="n">
-        <v>202.46</v>
+        <v>34.83</v>
       </c>
     </row>
     <row r="4">
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>180.52</v>
+        <v>28.06</v>
       </c>
       <c r="C11" t="n">
-        <v>24.42</v>
+        <v>7.54</v>
       </c>
       <c r="D11" t="n">
         <v>-0.45</v>
@@ -805,19 +805,19 @@
         <v>-0.79</v>
       </c>
       <c r="F11" t="n">
-        <v>119.12</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>131.17</v>
+        <v>12.83</v>
       </c>
       <c r="H11" t="n">
-        <v>185.18</v>
+        <v>29.5</v>
       </c>
       <c r="I11" t="n">
-        <v>217.01</v>
+        <v>39.32</v>
       </c>
       <c r="J11" t="n">
-        <v>226.04</v>
+        <v>42.11</v>
       </c>
     </row>
     <row r="12">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>148.38</v>
+        <v>18.14</v>
       </c>
       <c r="C12" t="n">
-        <v>20.64</v>
+        <v>6.37</v>
       </c>
       <c r="D12" t="n">
         <v>-0.22</v>
@@ -839,19 +839,19 @@
         <v>-1.17</v>
       </c>
       <c r="F12" t="n">
-        <v>100.04</v>
+        <v>3.22</v>
       </c>
       <c r="G12" t="n">
-        <v>110.89</v>
+        <v>6.57</v>
       </c>
       <c r="H12" t="n">
-        <v>150.26</v>
+        <v>18.72</v>
       </c>
       <c r="I12" t="n">
-        <v>177.08</v>
+        <v>27</v>
       </c>
       <c r="J12" t="n">
-        <v>187.52</v>
+        <v>30.22</v>
       </c>
     </row>
     <row r="13">

--- a/result/extreme_weather/basic_statistics/city_0/basic_statistics.xlsx
+++ b/result/extreme_weather/basic_statistics/city_0/basic_statistics.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>843.08</v>
+        <v>71.94</v>
       </c>
       <c r="C2" t="n">
-        <v>197.43</v>
+        <v>12.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.21</v>
+        <v>-0.15</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.05</v>
+        <v>-0.26</v>
       </c>
       <c r="F2" t="n">
-        <v>260.09</v>
+        <v>36.04</v>
       </c>
       <c r="G2" t="n">
-        <v>416.77</v>
+        <v>46.68</v>
       </c>
       <c r="H2" t="n">
-        <v>848.62</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>1211.15</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>1333</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.33</v>
+        <v>16.85</v>
       </c>
       <c r="C4" t="n">
-        <v>11.84</v>
+        <v>6.58</v>
       </c>
       <c r="D4" t="n">
         <v>-0.5600000000000001</v>
@@ -567,19 +567,19 @@
         <v>-0.64</v>
       </c>
       <c r="F4" t="n">
-        <v>27.5</v>
+        <v>-2.5</v>
       </c>
       <c r="G4" t="n">
-        <v>37.33</v>
+        <v>2.96</v>
       </c>
       <c r="H4" t="n">
-        <v>64.90000000000001</v>
+        <v>18.28</v>
       </c>
       <c r="I4" t="n">
-        <v>77.2</v>
+        <v>25.11</v>
       </c>
       <c r="J4" t="n">
-        <v>79.40000000000001</v>
+        <v>26.33</v>
       </c>
     </row>
     <row r="5">
